--- a/data/hotels_by_city/Houston/Houston_shard_416.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_416.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56855-d223186-Reviews-InTown_Suites_NASA-Webster_Texas.html</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,69 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r238551340-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>238551340</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I reserved this hotel to stay in while I was on assignment.  I am glad I looked at the room before I rented.  There was a great deal of mold in the bathroom, the carpet was disgustingly dirty and the smell was horrible. If I could have rated it a zero I would have. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r213559603-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>213559603</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>she forced her way into our room</t>
+  </si>
+  <si>
+    <t>I wish there was a negative star rating. The manager, Robyn Nelson (---)799-9527, forced her way 3 times into our room while my husband and I were naked. She used extreme profanity while throwing our belongings around, flipped the bed in the air and screaming the entire time. Previously she approached me about joining a pyramid scam selling coffee and soap. I was non committal about attending a 4th of July party given by her 'mentor' friend, I was polite but could barely get my laundry card without her telling me she needed 8 more people so she could get her Mercedes. She was violent, abusive and destructive. She believed we had a cat in the room and not only went though our belongings when we were not there, she showed up at 10:30 am demanding to search us. We asked several other locations to advise us, and they handled it professionally, advising us to call the corporate office. My husband spoke to Mr. Carter, who documented everything and told us he had 3 other calls to make regarding this individual. He told him that most likely, she would not be there when we got back from work. He was polite and apologetic. He reassured us that we would not have to be afraid to return to our room. He was also very eager to make us feel safe, welcomed, and comfortable at Inn Town Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I wish there was a negative star rating. The manager, Robyn Nelson (---)799-9527, forced her way 3 times into our room while my husband and I were naked. She used extreme profanity while throwing our belongings around, flipped the bed in the air and screaming the entire time. Previously she approached me about joining a pyramid scam selling coffee and soap. I was non committal about attending a 4th of July party given by her 'mentor' friend, I was polite but could barely get my laundry card without her telling me she needed 8 more people so she could get her Mercedes. She was violent, abusive and destructive. She believed we had a cat in the room and not only went though our belongings when we were not there, she showed up at 10:30 am demanding to search us. We asked several other locations to advise us, and they handled it professionally, advising us to call the corporate office. My husband spoke to Mr. Carter, who documented everything and told us he had 3 other calls to make regarding this individual. He told him that most likely, she would not be there when we got back from work. He was polite and apologetic. He reassured us that we would not have to be afraid to return to our room. He was also very eager to make us feel safe, welcomed, and comfortable at Inn Town Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r186225775-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>186225775</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Fairly Nice But...</t>
+  </si>
+  <si>
+    <t>I lived here 6 months. It is a great location---the management is nice. It is clean and quiet. However there were BED BUGS in room 341. The other people that stay there are a reasonable class. Without the bugs it is a good place to stay.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +601,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +633,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_416.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_416.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r555155076-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>223186</t>
+  </si>
+  <si>
+    <t>555155076</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Bug infested hotel</t>
+  </si>
+  <si>
+    <t>I checked into this hotel for a few days stay. The first night I noticed a bunch of small ants on the kitchen counter on top of the donuts I had just bought to have as a desert. I told the manager and he said those are just Sugar Ants and are plentiful in that area!! and they can spray next week but not earlier!. Then that night I had an attack of BED BUGS all over my arms and legs. I told the manager again and he sent the housekeeper to check it out! And she admitted in haveing a bed bug problem!. I asked for a refund and left that day.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I checked into this hotel for a few days stay. The first night I noticed a bunch of small ants on the kitchen counter on top of the donuts I had just bought to have as a desert. I told the manager and he said those are just Sugar Ants and are plentiful in that area!! and they can spray next week but not earlier!. Then that night I had an attack of BED BUGS all over my arms and legs. I told the manager again and he sent the housekeeper to check it out! And she admitted in haveing a bed bug problem!. I asked for a refund and left that day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r487780476-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>487780476</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>If your not white your outta there</t>
+  </si>
+  <si>
+    <t>I rented a room for 2weeks and was happy with the room and the price. I had a friend come over and visit and there was another guest staying there giving racial remarks to my friend who is black that other guest was white. We mentioned this the office but nothing was resolved so it continued and my friend ended up knocking the guy out. the hotel had kicked us out and we just rented for a week with deposit. We ended up losing close to $400 but we had told them what was going on but they were not trying to hear us out. This area is a white dominated area so me being Hispanic and my friend black it was useless.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I rented a room for 2weeks and was happy with the room and the price. I had a friend come over and visit and there was another guest staying there giving racial remarks to my friend who is black that other guest was white. We mentioned this the office but nothing was resolved so it continued and my friend ended up knocking the guy out. the hotel had kicked us out and we just rented for a week with deposit. We ended up losing close to $400 but we had told them what was going on but they were not trying to hear us out. This area is a white dominated area so me being Hispanic and my friend black it was useless.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r238551340-InTown_Suites_NASA-Webster_Texas.html</t>
   </si>
   <si>
-    <t>56855</t>
-  </si>
-  <si>
-    <t>223186</t>
-  </si>
-  <si>
     <t>238551340</t>
   </si>
   <si>
@@ -208,6 +256,45 @@
   </si>
   <si>
     <t>I lived here 6 months. It is a great location---the management is nice. It is clean and quiet. However there were BED BUGS in room 341. The other people that stay there are a reasonable class. Without the bugs it is a good place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r180095993-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>180095993</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>NEW BEDS, NEW PAINT, ETC.</t>
+  </si>
+  <si>
+    <t>My impression could not be more opposite than the other review posted here. They apparently remodeled recently. My room has new carpet, new paint, new bed, and furnishings. While I've been there, they also replaced the AC unit. Management has always been accommodating, and, even though I'm looking for a permanent residence in the area, I don't feel rushed to do so because I'm comfortable at the hotel. You can't beat all the "walk to" restaurants and businesses, either.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d223186-r174741913-InTown_Suites_NASA-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>174741913</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Never stay at this place they will not give your deposit back and its NASTY!</t>
+  </si>
+  <si>
+    <t>I had no idea they let Hotels that are this run down stay in business. They steal peoples deposits, the rooms are really nasty and stinky, the beds are so hard I slept on the floor instead. The whole place smells like mildew and the manager lady is VERY VERY RUDE. I would reccomend staying very far away from IN TOWN SUITES they are the worst company you can possibly imagine just read the reviews!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
 </sst>
 </file>
@@ -744,21 +831,31 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -774,7 +871,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -783,39 +880,43 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +932,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -840,45 +941,289 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34156</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
